--- a/biology/Botanique/Jardin_Serge-Gainsbourg/Jardin_Serge-Gainsbourg.xlsx
+++ b/biology/Botanique/Jardin_Serge-Gainsbourg/Jardin_Serge-Gainsbourg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin Serge-Gainsbourg est un jardin public du 19e arrondissement de Paris, en France.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin est situé à l'extrémité sud-est du 19e arrondissement de Paris, à la porte des Lilas, dominant le boulevard périphérique.
 Il est bordé au nord et à l'ouest par le boulevard périphérique, qu'il surplombe, au sud par la place du Maquis-du-Vercors et à l'est par l'avenue René-Fonck. Ces deux dernières voies offrent chacune un accès à l'espace vert.
@@ -545,7 +559,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin porte le nom de l'artiste français Serge Gainsbourg (1928-1991), auteur compositeur, interprète. C'est le premier lieu parisien à porter le nom du chanteur.
 Le lieu a été choisi par référence au premier succès de Serge Gainsbourg, la chanson Le Poinçonneur des Lilas.
@@ -577,9 +593,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin a été inauguré le 8 juillet 2010[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin a été inauguré le 8 juillet 2010.
 </t>
         </is>
       </c>
